--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>DiplomeEtat.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>DiplomeEtat.diplomeEtat</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'Etat français.</t>
+    <t>Diplôme d'Etat français.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R48-DiplomeEtatFrancais?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>Diplôme d'Etat français.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R48-DiplomeEtatFrancais?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.9140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Un diplôme d'État, abrégé DE, est un diplôme français qui est souvent requis pour l'exercice de professions règlementées, notamment dans le champ de la santé.L'Etat intervient dans la définition du programme et la pédagogie du cursus diplômant.Cette classe comprend également des diplômes anciens existant avant la création du diplôme d'Etat de la profession et qui étaient requis, à cette époque, pour l'exercice de la profession.Par exemple, le diplôme d'Etat de docteur en chirurgie dentaire est requis depuis 1972 pour exercer la profession de chirurgien-dentiste. Avant 1972, le diplôme d'Etat de chirurgien-dentiste était requis. Ces deux diplômes sont donc présents dans la nomenclature des diplômes d'Etat français.Dans le cadre du modèle, un Diplôme d'Etat est considéré comme un type de diplôme. La classe DiplomeEtat est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DiplomeEtat.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DiplomeEtat</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DiplomeEtat</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
